--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD80F85E-5683-489E-978E-CA9BFEC5CEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535A6B8-7501-45DD-B110-7173128A909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Image Viewer</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Simpeler concept</t>
+  </si>
+  <si>
+    <t>Goedgekeurd</t>
+  </si>
+  <si>
+    <t>Comment sectie</t>
+  </si>
+  <si>
+    <t>Guest Book</t>
   </si>
 </sst>
 </file>
@@ -618,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B269CD2-0D1A-49D4-89FD-9CACFEFB5CBA}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +644,7 @@
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,7 +658,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -658,7 +676,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -666,13 +687,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -680,13 +701,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -694,13 +715,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -708,43 +732,43 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -763,10 +787,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -774,10 +798,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -785,7 +809,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -796,17 +820,50 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H5 C2:C16">
+  <conditionalFormatting sqref="H1:H5 D5 D2 C2:C18">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535A6B8-7501-45DD-B110-7173128A909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF31D9D-84E4-4E5E-BDCF-72D1833826E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Guest Book</t>
+  </si>
+  <si>
+    <t>Ontwerp Document</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="0"/>
@@ -220,106 +223,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
         </patternFill>
       </fill>
     </dxf>
@@ -636,7 +539,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,13 +590,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -721,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -760,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF31D9D-84E4-4E5E-BDCF-72D1833826E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581BF088-12DD-4AFC-967B-773483D7AC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -42,9 +42,6 @@
     <t>MoSCoW</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Database model</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>Ontwerp Document</t>
+  </si>
+  <si>
+    <t>FE Status</t>
+  </si>
+  <si>
+    <t>BE Status</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -539,15 +592,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,16 +612,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,210 +631,258 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H5 D5 D2 C2:C18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="H1:H5 E5 E2 C2:D18">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Op pauze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Af"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Niet begonnen"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581BF088-12DD-4AFC-967B-773483D7AC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED56B46-8661-4BEE-A9A8-868E1B017C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="3600" yWindow="4500" windowWidth="28800" windowHeight="15435" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,57 +178,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="0"/>
@@ -592,7 +542,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -870,19 +820,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H5 E5 E2 C2:D18">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Op pauze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Af"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Niet begonnen"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED56B46-8661-4BEE-A9A8-868E1B017C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59784C40-69DB-47CB-A2F7-B2FEBB191B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="4500" windowWidth="28800" windowHeight="15435" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59784C40-69DB-47CB-A2F7-B2FEBB191B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A40331-453F-41CE-9946-6FFE2CF106E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="4500" windowWidth="28800" windowHeight="15435" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>BE Status</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Intergration tests</t>
+  </si>
+  <si>
+    <t>Algoritmiek</t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B269CD2-0D1A-49D4-89FD-9CACFEFB5CBA}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,21 +703,21 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -717,26 +726,15 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -745,18 +743,18 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -764,10 +762,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -778,13 +776,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -792,13 +790,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -806,20 +804,76 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H5 E5 E2 C2:D18">
+  <conditionalFormatting sqref="H1:H5 E5 E2 C2:D9 C10:E11 C13:D21 C23:D23">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A40331-453F-41CE-9946-6FFE2CF106E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C474BE3-E4AF-45F9-92A1-4D152F4D2CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H5 E5 E2 C2:D9 C10:E11 C13:D21 C23:D23">
+  <conditionalFormatting sqref="H1:H5 E5 E2 C2:D9 C10:E11 C23:D23 C13:D21">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PoolSideFM-Clone\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C474BE3-E4AF-45F9-92A1-4D152F4D2CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D9030-C499-4305-9782-0F8C9E87623B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="3945" yWindow="4845" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -130,6 +131,24 @@
   </si>
   <si>
     <t>Algoritmiek</t>
+  </si>
+  <si>
+    <t>leerdoel</t>
+  </si>
+  <si>
+    <t>in de vorm van</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ontwerp document</t>
+  </si>
+  <si>
+    <t>Opnieuw schrijven wat ik gemaakt heb</t>
+  </si>
+  <si>
+    <t>Notities</t>
   </si>
 </sst>
 </file>
@@ -187,7 +206,157 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -550,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B269CD2-0D1A-49D4-89FD-9CACFEFB5CBA}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +1043,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H5 E5 E2 C2:D9 C10:E11 C23:D23 C13:D21">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"Ready for Review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"Op pauze"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"Af"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381898AD-E1D3-4116-9C9A-D96AB4405FE3}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1:L5">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Ready for Review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Op pauze"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"Af"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C19 D2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D9030-C499-4305-9782-0F8C9E87623B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC3BB1B-23F9-4BDA-8777-0EA2F13F23E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="4845" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,39 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -145,17 +169,56 @@
     <t>Ontwerp document</t>
   </si>
   <si>
-    <t>Opnieuw schrijven wat ik gemaakt heb</t>
-  </si>
-  <si>
     <t>Notities</t>
+  </si>
+  <si>
+    <t>Dependency inversion</t>
+  </si>
+  <si>
+    <t>klassen diagram</t>
+  </si>
+  <si>
+    <t>google "dependency injection asp.net mvc core"</t>
+  </si>
+  <si>
+    <t>algoritmiek</t>
+  </si>
+  <si>
+    <t>Unit tests</t>
+  </si>
+  <si>
+    <t>unit tests in containerschip</t>
+  </si>
+  <si>
+    <t>integratie tests (meerdere lagen)</t>
+  </si>
+  <si>
+    <t>unit tests (enkele lagen)</t>
+  </si>
+  <si>
+    <t>Applicatie zelf</t>
+  </si>
+  <si>
+    <t>Wanneer af</t>
+  </si>
+  <si>
+    <t>Dinsdag 09/06/2020</t>
+  </si>
+  <si>
+    <t>leerdoel 4 en 7 (onderhoudbare applicatie en software kwaliteit)</t>
+  </si>
+  <si>
+    <t>Klassen diagram toevoegen met beschrijving</t>
+  </si>
+  <si>
+    <t>VEEL WERK NODIG (implementeren om te kijken voor benodigde toevoegingen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +230,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,57 +275,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1043,19 +1062,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H5 E5 E2 C2:D9 C10:E11 C23:D23 C13:D21">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Op pauze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Af"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Niet begonnen"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1066,17 +1085,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381898AD-E1D3-4116-9C9A-D96AB4405FE3}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1091,7 +1112,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="L1" t="s">
         <v>16</v>
@@ -1105,24 +1129,39 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1131,16 +1170,31 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,85 +1202,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>16</v>
+      <c r="D12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="D14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>16</v>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="e" cm="1">
+        <f t="array" ref="D39">--B6Apl</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L5">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Op pauze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Af"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Niet begonnen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C19 D2">
+  <conditionalFormatting sqref="D2:E2 E3 D5:D6 C2:C19">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Ready for Review"</formula>
     </cfRule>

--- a/Documentation/Agenda.xlsx
+++ b/Documentation/Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PoolSideFM-Clone\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC3BB1B-23F9-4BDA-8777-0EA2F13F23E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D22B4-D135-418F-B85F-7D9B88F36F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
+    <workbookView xWindow="3315" yWindow="2370" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{E7C21A0E-5B01-4304-BBBD-E8CB2CBC060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Analyse Document</t>
   </si>
@@ -208,10 +208,7 @@
     <t>leerdoel 4 en 7 (onderhoudbare applicatie en software kwaliteit)</t>
   </si>
   <si>
-    <t>Klassen diagram toevoegen met beschrijving</t>
-  </si>
-  <si>
-    <t>VEEL WERK NODIG (implementeren om te kijken voor benodigde toevoegingen)</t>
+    <t>Bepaalde verbindingen verbeteren</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1085,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,10 +1126,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>48</v>
@@ -1149,7 +1143,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -1177,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1191,7 +1185,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
